--- a/biology/Botanique/Haworthia_attenuata/Haworthia_attenuata.xlsx
+++ b/biology/Botanique/Haworthia_attenuata/Haworthia_attenuata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haworthiopsis attenuata est une espèce du genre Haworthia, sous-genre Hexangularis, et de la famille des Liliaceae, ou des Asphodelaceae selon la classification phylogénétique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante forme d'assez grosses rosettes vert foncé. Ses feuilles vertes et étroites de 6 cm de longueur, ornées de ponctuations blanches sur les deux faces, se terminent par une pointe non piquante. Elle supporte les expositions faiblement ensoleillées. Ainsi, elle se plait sur les bords de fenêtre, à l'ombre d'autres plantes.
 </t>
@@ -542,7 +556,9 @@
           <t>Formes et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Haworthia attenuata var. attenuata : variété type.
 Haworthia attenuata f. argyrostigma : forme d'Haworthia attenuata aux feuilles plus effilées, portant des points blancs plus fins et plus nombreux.
